--- a/2023.01/01.27.d81_individual_quiz/0127.xlsx
+++ b/2023.01/01.27.d81_individual_quiz/0127.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Microsoft-AI-School\2023.01\01.27.d81_individual_quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BFE600-1A86-4426-BFF0-E88862332F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8310260C-8CE2-439E-87EB-38C728757050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3E3F6044-BCB4-44F0-B17F-BAB79E81F2F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
   <si>
     <t>status</t>
   </si>
@@ -56,27 +56,6 @@
     <t>epochs</t>
   </si>
   <si>
-    <t>train loss</t>
-  </si>
-  <si>
-    <t>train acc</t>
-  </si>
-  <si>
-    <t>val acc</t>
-  </si>
-  <si>
-    <t>test acc</t>
-  </si>
-  <si>
-    <t>pt 파일 크기</t>
-  </si>
-  <si>
-    <t>result file name</t>
-  </si>
-  <si>
-    <t>특이사항</t>
-  </si>
-  <si>
     <t>yolov5s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,6 +66,41 @@
   <si>
     <t>done</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">mAP </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mAP 95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yolov5m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.441       0.31</t>
   </si>
 </sst>
 </file>
@@ -154,7 +168,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -173,13 +187,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -196,6 +225,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -227,8 +271,8 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>44561</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>196961</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -561,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8309E45D-C24A-4C32-983E-BA753ABCA716}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -594,36 +638,28 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D2" s="3">
         <v>1E-3</v>
@@ -636,7 +672,9 @@
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="I2" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4"/>
@@ -644,13 +682,13 @@
     </row>
     <row r="3" spans="1:13" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D3" s="3">
         <v>0.01</v>
@@ -663,11 +701,122 @@
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="I3" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="J3" s="5"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="E4" s="3">
+        <v>32</v>
+      </c>
+      <c r="F4" s="3">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="H4">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="E5" s="3">
+        <v>32</v>
+      </c>
+      <c r="F5" s="3">
+        <v>100</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="B7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="B8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="E8" s="9">
+        <v>64</v>
+      </c>
+      <c r="F8" s="9">
+        <v>100</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="B9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="E9" s="9">
+        <v>32</v>
+      </c>
+      <c r="F9" s="9">
+        <v>100</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
